--- a/ValueSet-EndpointPayloadTypeVS.xlsx
+++ b/ValueSet-EndpointPayloadTypeVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:12:19-04:00</t>
+    <t>2021-10-29T10:58:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-EndpointPayloadTypeVS.xlsx
+++ b/ValueSet-EndpointPayloadTypeVS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T10:58:57-04:00</t>
+    <t>2021-11-17T10:46:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
